--- a/templates/events_export_change.xlsx
+++ b/templates/events_export_change.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Sasa\events-tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F7D90-A14A-4B33-870F-1040126AF18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DD7929-892F-4C08-BADE-9832BB6A3099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="0" windowWidth="24750" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1296" yWindow="696" windowWidth="21276" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
